--- a/mx_py_server_notes.xlsx
+++ b/mx_py_server_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00619E9-2330-42A8-84B2-E83DA2491EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA902F3-52E8-4FB3-A7C3-76C53DD4B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="-14460" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flask Tutorial" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Tutorial </t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Tutorial — Flask Documentation (3.0.x)</t>
+  </si>
+  <si>
+    <t>pip install pytest coverage</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +397,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://flask.palletsprojects.com/en/stable/tutorial/tests/" xr:uid="{6B7549A3-A285-42BD-9159-52F8E34EFCDD}"/>
